--- a/data/trans_bre/P23_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_5_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,37 +657,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,92%</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-31,39%</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>-30,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>-27,61%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-16,18%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-67,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-25,09%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 3,57</t>
+          <t>-6,65; 3,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 2,6</t>
+          <t>-6,17; 3,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,78</t>
+          <t>-6,15; 3,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 5,53</t>
+          <t>-8,19; 0,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-81,72; 174,0</t>
+          <t>-7,03; 6,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-80,9; 98,54</t>
+          <t>-11,03; 5,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-78,52; 321,93</t>
+          <t>-81,83; 153,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-74,73; 240,97</t>
+          <t>-78,9; 133,69</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-84,01; 298,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-73,88; 239,9</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-77,26; 143,43</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-0,78</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,27%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-71,38%</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>405,31%</t>
+          <t>-2,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,48%</t>
+          <t>-75,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>430,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,69%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-17,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-59,63%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,37</t>
+          <t>-3,22; 2,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 0,22</t>
+          <t>-13,76; 0,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,31</t>
+          <t>0,06; 5,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 3,64</t>
+          <t>-3,48; 4,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-6,2; 3,57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-15,57; 0,41</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-88,42; 376,92</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-78,35; 268,62</t>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 697,58</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-76,99; 227,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-83,97; 19,68</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-43,88%</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,27%</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,2%</t>
+          <t>-47,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-39,74%</t>
+          <t>-25,74%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>68,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-46,34%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-39,69%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-29,52%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 0,64</t>
+          <t>-6,1; 0,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 1,59</t>
+          <t>-4,71; 1,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,99</t>
+          <t>-0,6; 5,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 1,31</t>
+          <t>-5,34; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,97; 26,77</t>
+          <t>-7,74; 1,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-70,81; 80,05</t>
+          <t>-6,76; 2,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 365,22</t>
+          <t>-81,8; 23,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-74,01; 30,02</t>
+          <t>-72,96; 88,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-21,4; 379,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-81,06; 47,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-73,43; 33,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-73,13; 68,77</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>1,18</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,69%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,04%</t>
+          <t>-6,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>68,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>91,29%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>44,01%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-36,76%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 3,68</t>
+          <t>-7,81; 3,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 6,21</t>
+          <t>-0,68; 6,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 7,55</t>
+          <t>0,39; 7,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 5,97</t>
+          <t>-1,45; 6,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,81; 100,23</t>
+          <t>-3,93; 5,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 243,36</t>
+          <t>-10,38; 0,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 239,21</t>
+          <t>-65,57; 97,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 137,76</t>
+          <t>-16,41; 253,3</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 262,54</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-20,98; 182,59</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-43,12; 151,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-65,39; 10,95</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-2,96</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-23,31%</t>
+          <t>-1,42%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-23,28%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>57,93%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 4,91</t>
+          <t>-5,83; 4,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 4,75</t>
+          <t>-7,1; 4,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 5,2</t>
+          <t>-1,93; 5,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 3,52</t>
+          <t>-5,19; 7,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-64,86; 171,68</t>
+          <t>-10,08; 3,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-63,23; 114,35</t>
+          <t>-1,75; 10,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,45; 225,17</t>
+          <t>-65,43; 149,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 40,02</t>
+          <t>-63,55; 104,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-38,07; 222,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-49,46; 138,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-58,85; 37,61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-19,69; 198,84</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,38%</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,82%</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>118,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-14,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>163,23%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-24,88%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 8,08</t>
+          <t>-0,25; 10,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 3,17</t>
+          <t>-6,35; 2,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 5,32</t>
+          <t>-3,93; 5,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 5,03</t>
+          <t>-0,66; 8,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,13; 413,17</t>
+          <t>-9,02; 4,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,9; 150,37</t>
+          <t>-4,99; 7,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,32; 185,48</t>
+          <t>-18,06; 606,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,73; 117,76</t>
+          <t>-76,48; 112,25</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-49,02; 207,76</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-36,98; 1056,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-73,84; 121,44</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-51,02; 199,66</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>-1,17</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,61%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,04%</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>-12,43%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>56,23%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-15,52%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-18,9%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1,87</t>
+          <t>-1,73; 2,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,15</t>
+          <t>-2,54; 1,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,29</t>
+          <t>0,52; 3,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,39</t>
+          <t>-1,12; 2,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 51,34</t>
+          <t>-3,51; 1,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 31,48</t>
+          <t>-4,55; 0,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,31; 120,15</t>
+          <t>-29,19; 52,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 22,1</t>
+          <t>-40,72; 31,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 122,34</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-22,35; 79,39</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-39,28; 19,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-42,28; 13,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
